--- a/medicine/Pharmacie/Loi_sur_les_stupéfiants/Loi_sur_les_stupéfiants.xlsx
+++ b/medicine/Pharmacie/Loi_sur_les_stupéfiants/Loi_sur_les_stupéfiants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_sur_les_stup%C3%A9fiants</t>
+          <t>Loi_sur_les_stupéfiants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Loi sur les stupéfiants (Narcotic Control Act en anglais) est une loi fédérale du Canada contrôlant les drogues  à partir de son adoption en 1961 jusqu'à ce qu'elle soit remplacée, en 1996, par la Loi réglementant certaines drogues et autres substances. Elle implémentait les dispositions de la Convention unique sur les stupéfiants de 1961 de l'ONU.
